--- a/biology/Zoologie/Acanthosoma/Acanthosoma.xlsx
+++ b/biology/Zoologie/Acanthosoma/Acanthosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthosoma est un genre d'insectes du sous-ordre des hétéroptères (punaises) et de la famille des Acanthosomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foyer de spéciation du genre est l'Asie orientale. La plupart des espèces se trouve en Himalaya, Chine, Corée et Japon. Certaines espèces s'étendent en Sibérie orientale et Extrême-Orient russe ainsi qu'en Indochine. Acanthosoma haemorrhoidale a une distribution transpalaéarctique, c'est ainsi la seule espèce rencontrée en Europe. Acanthosoma hampsoni est endémique du sud de l'Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foyer de spéciation du genre est l'Asie orientale. La plupart des espèces se trouve en Himalaya, Chine, Corée et Japon. Certaines espèces s'étendent en Sibérie orientale et Extrême-Orient russe ainsi qu'en Indochine. Acanthosoma haemorrhoidale a une distribution transpalaéarctique, c'est ainsi la seule espèce rencontrée en Europe. Acanthosoma hampsoni est endémique du sud de l'Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces sont arboricoles. Les plantes hôtes ne sont pas connus pour de nombreuses espèces[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces sont arboricoles. Les plantes hôtes ne sont pas connus pour de nombreuses espèces.
 </t>
         </is>
       </c>
@@ -573,15 +589,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Acanthosoma est décrit pour la première fois par l'entomologiste britannique John Curtis en 1824.
-En 1974, lors de sa révision des Acanthosomatidae, l'entomologiste indien Rajesh Kumar place le genre Anaxandra Stål, 1876 comme synonyme d'Acanthosoma[3]. La synonymie est confirmée en 2015 par Tsai et Rédei. Selon ces mêmes auteurs, il resteraient des espèces encore non décrites[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthosoma est décrit pour la première fois par l'entomologiste britannique John Curtis en 1824.
+En 1974, lors de sa révision des Acanthosomatidae, l'entomologiste indien Rajesh Kumar place le genre Anaxandra Stål, 1876 comme synonyme d'Acanthosoma. La synonymie est confirmée en 2015 par Tsai et Rédei. Selon ces mêmes auteurs, il resteraient des espèces encore non décrites.
 L'espèce type est Acanthosoma haemorrhoidale (Linnaeus, 1758).
-Publication originale
-(en) John Curtis, 1823-1840. British entomology, being illustrations and descriptions of the genera of insects found in Great Britain and Ireland; containing coloured figures from nature of the most rare and beautiful species, and in many instances of the plants upon which they are found, vol. 1, 1824 (lire en ligne), p. 28. 
-Liste des espèces
-Le genre contient 27 espèces au total, 23 selon la révision établie par Tsai et Rédei, 2015[1] et quatre nouvelles espèces décrites par ces mêmes auteurs pour Taiwan[2]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acanthosoma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosoma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) John Curtis, 1823-1840. British entomology, being illustrations and descriptions of the genera of insects found in Great Britain and Ireland; containing coloured figures from nature of the most rare and beautiful species, and in many instances of the plants upon which they are found, vol. 1, 1824 (lire en ligne), p. 28. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acanthosoma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acanthosoma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le genre contient 27 espèces au total, 23 selon la révision établie par Tsai et Rédei, 2015 et quatre nouvelles espèces décrites par ces mêmes auteurs pour Taiwan:
 Acanthosoma asahinai Ishihara, 1943
 Acanthosoma atayal Tsai &amp; Rédei, 2015
 Acanthosoma axicia Tsai &amp; Rédei, 2015
